--- a/biology/Médecine/Schering/Schering.xlsx
+++ b/biology/Médecine/Schering/Schering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Schering (fondée en 1871 par Ernst Schering) était une société anonyme allemande d'industrie pharmaceutique. Elle a fusionné avec Bayer AG pour donner naissance à Bayer Schering Pharma le 29 décembre 2006.
@@ -518,7 +530,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La filiale américaine de Schering AG, fondée en 1929 à New-York, s'est séparée de sa maison-mère pendant la Seconde Guerre mondiale. Elle deviendra le laboratoire Schering-Plough Corporate, racheté en 2009 par Merck &amp; Co.. 
 </t>
@@ -549,7 +563,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Pressearchiv 20. Jahrhundert,  (organisation), [lire en ligne], consulté le 1er juillet 2021
